--- a/src/test/java/com/abof/testData/TestData.xlsx
+++ b/src/test/java/com/abof/testData/TestData.xlsx
@@ -36,17 +36,17 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Framework_001</t>
-  </si>
-  <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Validate abof Landing Page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,14 +58,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,20 +101,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,40 +423,41 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,11 +515,8 @@
       <c r="D11" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
